--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1957067.34281057</v>
+        <v>1954815.263099362</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9997062.892541869</v>
+        <v>9997062.89254187</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.4918089738213</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>57.29212650174124</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.8138270523785</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289024</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>50.04052206184355</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157623</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673322</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177676</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292598</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>214.8185470786303</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>61.08019102731622</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>42.67804628306391</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710069</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.7871326503986</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>145.6229551553992</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>120.7871326503972</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.8000472740333</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.905700988131</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>149.909569154493</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>282.8547581679341</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.936093944079</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2345.167438673965</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4383,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>657.6489837069648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1513.842048484845</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.424878447885</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X4" t="n">
-        <v>996.4353275498672</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.6427484063371</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565138</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624726</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179758</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.94140762926</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,16 +4650,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.580917301916</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4817,10 +4817,10 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3108.617390216615</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2777.554502873044</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.78584760293</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.32008934185</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.180757366038</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1865.597385434638</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1673.911501261464</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1452.14488583099</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1163.042018956634</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>908.3575307507468</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>908.3575307507468</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>680.3679798527295</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.3679798527295</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549.6145409888042</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888042</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2232.8234857363</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2013.222020759241</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1724.146794103439</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1469.462305897552</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1180.045135860591</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>952.055584962574</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.2630058190439</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277359</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E16" t="n">
-        <v>215.8238677453428</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F16" t="n">
-        <v>215.8238677453428</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>718.550723916711</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>900.1991887469508</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,64 +5975,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7400,7 +7400,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.785327524179593e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>35.40333084624535</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>44.73700564187165</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>18.49466557219053</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.790567694115452e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>136.2749052347512</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>3.329716221310093</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860922.6969047772</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830049</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830047</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820641</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="D4" t="n">
         <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685494</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685494</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685494</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26445,10 +26445,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
+        <v>14216.75207685504</v>
+      </c>
+      <c r="M4" t="n">
         <v>14216.75207685507</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955353.2342321939</v>
+        <v>-955353.2342321937</v>
       </c>
       <c r="C6" t="n">
-        <v>373391.5114953989</v>
+        <v>373391.5114953986</v>
       </c>
       <c r="D6" t="n">
         <v>373391.511495399</v>
       </c>
       <c r="E6" t="n">
-        <v>124250.8760748869</v>
+        <v>124216.1381494514</v>
       </c>
       <c r="F6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568067</v>
       </c>
       <c r="G6" t="n">
-        <v>449663.3378822427</v>
+        <v>449628.5999568067</v>
       </c>
       <c r="H6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568067</v>
       </c>
       <c r="I6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568065</v>
       </c>
       <c r="J6" t="n">
-        <v>232132.1354849651</v>
+        <v>232097.3975595293</v>
       </c>
       <c r="K6" t="n">
-        <v>449663.3378822426</v>
+        <v>449628.5999568069</v>
       </c>
       <c r="L6" t="n">
-        <v>449663.3378822425</v>
+        <v>449628.5999568067</v>
       </c>
       <c r="M6" t="n">
-        <v>364608.3099467306</v>
+        <v>364573.5720212947</v>
       </c>
       <c r="N6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568064</v>
       </c>
       <c r="O6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568067</v>
       </c>
       <c r="P6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568066</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26796,19 +26796,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>270.4601319683937</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.01815312955877</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.32475882319235</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>331.8898480104182</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659961</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718946</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>36.17662488027167</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>27.85196164273112</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>147.090979048378</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.735815938312807e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.674596803735689e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.674596803735689e-14</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.674596803735689e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.386321975021722e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-6.674596803735689e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138795</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31844,10 +31844,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175677</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963282</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340053</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899088</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -36124,7 +36124,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
